--- a/biology/Botanique/Scille/Scille.xlsx
+++ b/biology/Botanique/Scille/Scille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle « scille » diverses plantes herbacées de la famille des Hyacinthaceae. À l'heure actuelle, on sépare les scilles « véritables » du genre Scilla, des scilles nommées ainsi par ressemblance morphologique.
-Des études récentes utilisant le séquençage de l'ADN ont montré que les espèces classées dans le genre Scilla ont une phylogénie différente. Franz Speta a ainsi proposé de diviser le genre Scilla en Scilla sensu stricto et 16 nouveaux genres[1],[2].
+Des études récentes utilisant le séquençage de l'ADN ont montré que les espèces classées dans le genre Scilla ont une phylogénie différente. Franz Speta a ainsi proposé de diviser le genre Scilla en Scilla sensu stricto et 16 nouveaux genres,.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Les Scilla sensu lato</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En France on connaît :
 La scille à deux feuilles, Scilla bifolia L., petite plante bulbeuse printanière, des sous-bois frais, commune dans le centre et l'est de la France, floraison de mars à avril, jusqu'à 1500 m d'altitude.
 La scille printanière, Tractema verna (Huds.) Speta (Syn. : Scilla verna Huds.), espèce atlantique qu'on rencontre aussi dans les Pyrénées.
-La scille lis-jacinthe, Tractema lilio-hyacinthus (L.) Speta (Syn. : Scilla lilio-hyacinthus L.), appelée aussi jacinthe des Pyrénées[3], espèce du sud-ouest de la France et le nord de l'Espagne. Le bulbe écailleux ressemble à celui d'un lis, les feuilles à celles d'un jacinthe.
+La scille lis-jacinthe, Tractema lilio-hyacinthus (L.) Speta (Syn. : Scilla lilio-hyacinthus L.), appelée aussi jacinthe des Pyrénées, espèce du sud-ouest de la France et le nord de l'Espagne. Le bulbe écailleux ressemble à celui d'un lis, les feuilles à celles d'un jacinthe.
 La scille d'automne, Prospero autumnale (L.) Speta (Syn. : Scilla autumnalis L.), espèce miniature à floraison estivale et automnale d'Europe centrale et méridionale ; les feuilles apparaissent après les fleurs.
 Prospero obtusifolium (Poiret) Speta (Syn. : Scilla obtusifolia Poir.) se rencontre dans le sud de la Corse.
 La scille fausse-jacinthe, Nectaroscilla hyacinthoides (L.) Parl. (Syn. : Scilla hyacinthoides L.), espèce méditerranéenne, qu'on rencontre localement en Provence et dans le Languedoc, échappée d'anciens jardins.
@@ -555,7 +569,9 @@
           <t>Les autres scilles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'autres espèces, qui sont aussi des Hyacinthaceae, sont aussi appelées "scilles" :
 La scille penchée ou jacinthe des bois, autrefois Scilla non-scripta, maintenant Hyacinthoides non-scripta (L.) Chouard ex Rothm., aux fleurs penchées, en clochettes tubuleuses.
@@ -594,9 +610,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La scille en trochisque pouvait entrer en notable proportion dans la composition de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle [4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La scille en trochisque pouvait entrer en notable proportion dans la composition de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle .
 </t>
         </is>
       </c>
